--- a/CRICITUP/cricket_data_match_16_with_integer_data2.xlsx
+++ b/CRICITUP/cricket_data_match_16_with_integer_data2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\The Project\CRICITUP LAST\cricitup\CRICITUP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\The Project\cricitup\CRICITUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F502E9-EE7B-4C76-ABAC-6EFDF19F9584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18528" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="18528" windowHeight="10224"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -550,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -597,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -644,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -691,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -738,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -785,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -832,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -879,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -926,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -973,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1020,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1067,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1114,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1161,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1208,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1255,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1302,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1349,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1396,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1443,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -1490,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
